--- a/Database Migration Patterns and Target Platform Recommendation/Database Migration Patterns and Target Platform Recommendation.xlsx
+++ b/Database Migration Patterns and Target Platform Recommendation/Database Migration Patterns and Target Platform Recommendation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42E20F21-4A83-4257-9C23-95F0D58C7B1C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0124A9-401F-41E0-B41D-87DC028C0E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="879" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="200">
   <si>
     <t>S.No</t>
   </si>
@@ -3803,6 +3803,9 @@
   </si>
   <si>
     <t>Re-Engg (SQL MI, SQL DW and PostgreSQL - Hyperscale) - because of different engine, feature and language parities</t>
+  </si>
+  <si>
+    <t>Data Migration Jumpstart Engineering Team</t>
   </si>
 </sst>
 </file>
@@ -3855,7 +3858,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3871,6 +3874,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3926,7 +3935,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
@@ -3957,6 +3966,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4244,24 +4254,28 @@
       <selection activeCell="B1" sqref="B1"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
-      <selection pane="bottomRight" activeCell="D8" sqref="D8"/>
+      <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="9.06640625" style="10"/>
-    <col min="2" max="2" width="24.1328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.53125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="28.9296875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="47.46484375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="42.6640625" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.06640625" style="10"/>
+    <col min="1" max="1" width="9.05078125" style="10"/>
+    <col min="2" max="2" width="24.1015625" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.5234375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.9453125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.47265625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="42.68359375" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.05078125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="12" t="s">
+        <v>199</v>
+      </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4284,7 +4298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3">
         <v>37</v>
       </c>
@@ -4307,7 +4321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="3">
         <v>38</v>
       </c>
@@ -4330,7 +4344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -4351,7 +4365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="3">
         <v>39</v>
       </c>
@@ -4374,7 +4388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -4395,7 +4409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -4418,7 +4432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -4439,7 +4453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -4460,7 +4474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -4481,7 +4495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -4502,7 +4516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -4523,7 +4537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -4544,7 +4558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
@@ -4565,7 +4579,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -4586,7 +4600,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -4607,7 +4621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -4628,7 +4642,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -4649,7 +4663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -4670,7 +4684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -4691,7 +4705,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -4712,7 +4726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -4733,7 +4747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -4754,7 +4768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>2</v>
@@ -4775,7 +4789,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -4796,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>2</v>
@@ -4817,7 +4831,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -4838,7 +4852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
@@ -4859,7 +4873,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>2</v>
@@ -4880,7 +4894,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>2</v>
@@ -4901,7 +4915,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>2</v>
@@ -4922,7 +4936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>2</v>
@@ -4943,7 +4957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>2</v>
@@ -4964,7 +4978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -4985,7 +4999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>2</v>
@@ -5006,7 +5020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>2</v>
@@ -5027,7 +5041,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -5048,7 +5062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>2</v>
@@ -5069,7 +5083,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>2</v>
@@ -5090,7 +5104,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>2</v>
@@ -5111,7 +5125,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -5132,7 +5146,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>2</v>
@@ -5153,7 +5167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -5174,7 +5188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>2</v>
@@ -5195,7 +5209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>2</v>
@@ -5216,7 +5230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>2</v>
@@ -5237,7 +5251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>2</v>
@@ -5258,7 +5272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>2</v>
@@ -5279,7 +5293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>2</v>
@@ -5300,7 +5314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>2</v>
@@ -5321,7 +5335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>2</v>
@@ -5342,7 +5356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
         <v>2</v>
@@ -5363,7 +5377,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>2</v>
@@ -5384,7 +5398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
         <v>2</v>
@@ -5405,7 +5419,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>2</v>
@@ -5426,7 +5440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>2</v>
@@ -5447,7 +5461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
         <v>2</v>
@@ -5468,7 +5482,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
         <v>2</v>
@@ -5489,7 +5503,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>2</v>
@@ -5510,7 +5524,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>2</v>
@@ -5531,7 +5545,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>2</v>
@@ -5552,7 +5566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>2</v>
@@ -5573,7 +5587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
@@ -5593,7 +5607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="3" t="s">
         <v>2</v>
       </c>
@@ -5613,7 +5627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="3" t="s">
         <v>2</v>
       </c>
@@ -5633,7 +5647,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="3" t="s">
         <v>2</v>
       </c>
@@ -5653,7 +5667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
@@ -5673,7 +5687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
@@ -5693,7 +5707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
@@ -5713,7 +5727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="3" t="s">
         <v>2</v>
       </c>
@@ -5733,7 +5747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="3" t="s">
         <v>2</v>
       </c>
@@ -5753,7 +5767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="3" t="s">
         <v>2</v>
       </c>
@@ -5773,7 +5787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="3" t="s">
         <v>2</v>
       </c>
@@ -5793,7 +5807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="3" t="s">
         <v>2</v>
       </c>
@@ -5813,7 +5827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="3" t="s">
         <v>2</v>
       </c>
@@ -5833,7 +5847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
@@ -5853,7 +5867,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B78" s="3" t="s">
         <v>2</v>
       </c>
@@ -5873,7 +5887,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="3" t="s">
         <v>2</v>
       </c>
@@ -5893,7 +5907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="3" t="s">
         <v>2</v>
       </c>
@@ -5913,7 +5927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="3" t="s">
         <v>2</v>
       </c>
@@ -5933,7 +5947,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
@@ -5953,7 +5967,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="3" t="s">
         <v>2</v>
       </c>
@@ -5973,7 +5987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="3" t="s">
         <v>2</v>
       </c>
@@ -5993,7 +6007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
@@ -6013,7 +6027,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B86" s="3" t="s">
         <v>2</v>
       </c>
@@ -6033,7 +6047,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="3" t="s">
         <v>2</v>
       </c>
@@ -6053,7 +6067,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="3" t="s">
         <v>2</v>
       </c>
@@ -6073,7 +6087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
@@ -6093,7 +6107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="3" t="s">
         <v>2</v>
       </c>
@@ -6113,7 +6127,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="3" t="s">
         <v>2</v>
       </c>
@@ -6133,7 +6147,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
@@ -6153,7 +6167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
@@ -6173,7 +6187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
@@ -6193,7 +6207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
@@ -6213,7 +6227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
@@ -6233,7 +6247,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="2:7" customFormat="1" ht="46.5" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
@@ -6253,7 +6267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="2:7" customFormat="1" ht="34.9" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
       <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
@@ -6273,7 +6287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
@@ -6293,7 +6307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B100" s="3" t="s">
         <v>2</v>
       </c>
@@ -6313,7 +6327,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
@@ -6333,7 +6347,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B102" s="3" t="s">
         <v>2</v>
       </c>
@@ -6353,7 +6367,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="103" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
@@ -6373,7 +6387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="104" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B104" s="3" t="s">
         <v>2</v>
       </c>
@@ -6393,7 +6407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="105" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B105" s="3" t="s">
         <v>2</v>
       </c>
@@ -6413,7 +6427,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="106" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B106" s="3" t="s">
         <v>2</v>
       </c>
@@ -6433,7 +6447,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="107" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
@@ -6453,7 +6467,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="108" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B108" s="3" t="s">
         <v>2</v>
       </c>
@@ -6473,7 +6487,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="109" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B109" s="3" t="s">
         <v>2</v>
       </c>
@@ -6493,7 +6507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="110" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B110" s="3" t="s">
         <v>2</v>
       </c>
@@ -6513,7 +6527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="111" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B111" s="3" t="s">
         <v>2</v>
       </c>
@@ -6533,7 +6547,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="112" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B112" s="3" t="s">
         <v>2</v>
       </c>
@@ -6553,7 +6567,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="113" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B113" s="3" t="s">
         <v>2</v>
       </c>
@@ -6573,7 +6587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="114" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B114" s="3" t="s">
         <v>2</v>
       </c>
@@ -6593,7 +6607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="115" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B115" s="3" t="s">
         <v>2</v>
       </c>
@@ -6613,7 +6627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="2:7" customFormat="1" ht="69.75" x14ac:dyDescent="0.45">
+    <row r="116" spans="2:7" customFormat="1" ht="70.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B116" s="3" t="s">
         <v>2</v>
       </c>
@@ -6633,7 +6647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="2:7" customFormat="1" ht="69.75" x14ac:dyDescent="0.45">
+    <row r="117" spans="2:7" customFormat="1" ht="70.2" x14ac:dyDescent="0.55000000000000004">
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
@@ -6653,7 +6667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="118" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B118" s="3" t="s">
         <v>2</v>
       </c>
@@ -6673,7 +6687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="119" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B119" s="3" t="s">
         <v>2</v>
       </c>
@@ -6693,7 +6707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B120" s="3" t="s">
         <v>2</v>
       </c>
@@ -6711,7 +6725,7 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B121" s="3" t="s">
         <v>2</v>
       </c>
@@ -6729,7 +6743,7 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B122" s="3" t="s">
         <v>2</v>
       </c>
@@ -6749,7 +6763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B123" s="3" t="s">
         <v>2</v>
       </c>
@@ -6769,7 +6783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B124" s="3" t="s">
         <v>2</v>
       </c>
@@ -6787,7 +6801,7 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B125" s="3" t="s">
         <v>2</v>
       </c>
@@ -6805,7 +6819,7 @@
       </c>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B126" s="3" t="s">
         <v>2</v>
       </c>
@@ -6825,7 +6839,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B127" s="3" t="s">
         <v>2</v>
       </c>
@@ -6845,7 +6859,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="3" t="s">
         <v>2</v>
       </c>
@@ -6865,7 +6879,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B129" s="3" t="s">
         <v>2</v>
       </c>
@@ -6885,7 +6899,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B130" s="3" t="s">
         <v>2</v>
       </c>
@@ -6905,7 +6919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
@@ -6925,7 +6939,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B132" s="3" t="s">
         <v>2</v>
       </c>
@@ -6943,7 +6957,7 @@
       </c>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="133" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B133" s="3" t="s">
         <v>2</v>
       </c>
@@ -6961,7 +6975,7 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B134" s="3" t="s">
         <v>2</v>
       </c>
@@ -6979,7 +6993,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B135" s="3" t="s">
         <v>2</v>
       </c>
@@ -6997,7 +7011,7 @@
       </c>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B136" s="3" t="s">
         <v>2</v>
       </c>
@@ -7015,7 +7029,7 @@
       </c>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="137" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B137" s="3" t="s">
         <v>2</v>
       </c>
@@ -7033,7 +7047,7 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="138" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B138" s="3" t="s">
         <v>2</v>
       </c>
@@ -7053,7 +7067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B139" s="3" t="s">
         <v>2</v>
       </c>
@@ -7071,7 +7085,7 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B140" s="3" t="s">
         <v>2</v>
       </c>
@@ -7089,7 +7103,7 @@
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="2:7" customFormat="1" ht="23.25" x14ac:dyDescent="0.45">
+    <row r="141" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
       <c r="B141" s="3" t="s">
         <v>2</v>
       </c>
@@ -7109,7 +7123,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B142" s="3" t="s">
         <v>2</v>
       </c>
@@ -7127,7 +7141,7 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B143" s="3" t="s">
         <v>2</v>
       </c>
@@ -7145,7 +7159,7 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B144" s="3" t="s">
         <v>2</v>
       </c>
@@ -7163,7 +7177,7 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B145" s="3" t="s">
         <v>2</v>
       </c>
@@ -7181,7 +7195,7 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B146" s="3" t="s">
         <v>2</v>
       </c>
@@ -7199,7 +7213,7 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B147" s="3" t="s">
         <v>2</v>
       </c>
@@ -7217,7 +7231,7 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B148" s="3" t="s">
         <v>2</v>
       </c>
@@ -7235,7 +7249,7 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B149" s="3" t="s">
         <v>2</v>
       </c>
@@ -7253,7 +7267,7 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B150" s="3" t="s">
         <v>2</v>
       </c>
@@ -7271,7 +7285,7 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B151" s="3" t="s">
         <v>2</v>
       </c>

--- a/Database Migration Patterns and Target Platform Recommendation/Database Migration Patterns and Target Platform Recommendation.xlsx
+++ b/Database Migration Patterns and Target Platform Recommendation/Database Migration Patterns and Target Platform Recommendation.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC0124A9-401F-41E0-B41D-87DC028C0E7F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0739D09B-2140-4CDB-A001-8CC0802A37B7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21600" windowHeight="13869" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use Cases" sheetId="1" r:id="rId1"/>
@@ -3805,7 +3805,7 @@
     <t>Re-Engg (SQL MI, SQL DW and PostgreSQL - Hyperscale) - because of different engine, feature and language parities</t>
   </si>
   <si>
-    <t>Data Migration Jumpstart Engineering Team</t>
+    <t>Data SQL Ninja Engineering Team</t>
   </si>
 </sst>
 </file>
@@ -4257,25 +4257,25 @@
       <selection pane="bottomRight" activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.05078125" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="9.05078125" style="10"/>
-    <col min="2" max="2" width="24.1015625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="26.5234375" style="10" customWidth="1"/>
-    <col min="4" max="4" width="28.9453125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="35.578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.47265625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="42.68359375" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9.05078125" style="10"/>
+    <col min="1" max="1" width="9.07421875" style="10"/>
+    <col min="2" max="2" width="24.07421875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="26.53515625" style="10" customWidth="1"/>
+    <col min="4" max="4" width="28.921875" style="10" customWidth="1"/>
+    <col min="5" max="5" width="35.53515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.4609375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="42.69140625" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9.07421875" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="E1" s="12" t="s">
         <v>199</v>
       </c>
       <c r="G1" s="4"/>
     </row>
-    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -4298,7 +4298,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="3" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A3" s="3">
         <v>37</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:7" customFormat="1" ht="61.9" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" customFormat="1" ht="61.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="3">
         <v>38</v>
       </c>
@@ -4344,7 +4344,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="5" spans="1:7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>2</v>
@@ -4365,7 +4365,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="3">
         <v>39</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>2</v>
@@ -4409,7 +4409,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="8" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A8" s="3">
         <v>41</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="3"/>
       <c r="B9" s="3" t="s">
         <v>2</v>
@@ -4453,7 +4453,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="10" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A10" s="3"/>
       <c r="B10" s="3" t="s">
         <v>2</v>
@@ -4474,7 +4474,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="11" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A11" s="3"/>
       <c r="B11" s="3" t="s">
         <v>2</v>
@@ -4495,7 +4495,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="12" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3" t="s">
         <v>2</v>
@@ -4516,7 +4516,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A13" s="3"/>
       <c r="B13" s="3" t="s">
         <v>2</v>
@@ -4537,7 +4537,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>2</v>
@@ -4558,7 +4558,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="3"/>
       <c r="B15" s="3" t="s">
         <v>2</v>
@@ -4579,7 +4579,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="3"/>
       <c r="B16" s="3" t="s">
         <v>2</v>
@@ -4600,7 +4600,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="17" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A17" s="3"/>
       <c r="B17" s="3" t="s">
         <v>2</v>
@@ -4621,7 +4621,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="3"/>
       <c r="B18" s="3" t="s">
         <v>2</v>
@@ -4642,7 +4642,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="19" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A19" s="3"/>
       <c r="B19" s="3" t="s">
         <v>2</v>
@@ -4663,7 +4663,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="20" spans="1:7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" customFormat="1" ht="48" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>2</v>
@@ -4684,7 +4684,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="21" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A21" s="3"/>
       <c r="B21" s="3" t="s">
         <v>2</v>
@@ -4705,7 +4705,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="22" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A22" s="3"/>
       <c r="B22" s="3" t="s">
         <v>2</v>
@@ -4726,7 +4726,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="3"/>
       <c r="B23" s="3" t="s">
         <v>2</v>
@@ -4747,7 +4747,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="3"/>
       <c r="B24" s="3" t="s">
         <v>2</v>
@@ -4768,7 +4768,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="3"/>
       <c r="B25" s="3" t="s">
         <v>2</v>
@@ -4789,7 +4789,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="26" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>2</v>
@@ -4810,7 +4810,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="3"/>
       <c r="B27" s="3" t="s">
         <v>2</v>
@@ -4831,7 +4831,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A28" s="3"/>
       <c r="B28" s="3" t="s">
         <v>2</v>
@@ -4852,7 +4852,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A29" s="3"/>
       <c r="B29" s="3" t="s">
         <v>2</v>
@@ -4873,7 +4873,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="30" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A30" s="3"/>
       <c r="B30" s="3" t="s">
         <v>2</v>
@@ -4894,7 +4894,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="31" spans="1:7" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" customFormat="1" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A31" s="3"/>
       <c r="B31" s="3" t="s">
         <v>2</v>
@@ -4915,7 +4915,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
       <c r="B32" s="3" t="s">
         <v>2</v>
@@ -4936,7 +4936,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="3"/>
       <c r="B33" s="3" t="s">
         <v>2</v>
@@ -4957,7 +4957,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="3"/>
       <c r="B34" s="3" t="s">
         <v>2</v>
@@ -4978,7 +4978,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="35" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A35" s="3"/>
       <c r="B35" s="3" t="s">
         <v>2</v>
@@ -4999,7 +4999,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="3"/>
       <c r="B36" s="3" t="s">
         <v>2</v>
@@ -5020,7 +5020,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="37" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A37" s="3"/>
       <c r="B37" s="3" t="s">
         <v>2</v>
@@ -5041,7 +5041,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="38" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3" t="s">
         <v>2</v>
@@ -5062,7 +5062,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="39" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A39" s="2"/>
       <c r="B39" s="3" t="s">
         <v>2</v>
@@ -5083,7 +5083,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="40" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A40" s="2"/>
       <c r="B40" s="3" t="s">
         <v>2</v>
@@ -5104,7 +5104,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A41" s="2"/>
       <c r="B41" s="3" t="s">
         <v>2</v>
@@ -5125,7 +5125,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A42" s="2"/>
       <c r="B42" s="3" t="s">
         <v>2</v>
@@ -5146,7 +5146,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A43" s="2"/>
       <c r="B43" s="3" t="s">
         <v>2</v>
@@ -5167,7 +5167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="44" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A44" s="2"/>
       <c r="B44" s="3" t="s">
         <v>2</v>
@@ -5188,7 +5188,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A45" s="2"/>
       <c r="B45" s="3" t="s">
         <v>2</v>
@@ -5209,7 +5209,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A46" s="2"/>
       <c r="B46" s="3" t="s">
         <v>2</v>
@@ -5230,7 +5230,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="47" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A47" s="2"/>
       <c r="B47" s="3" t="s">
         <v>2</v>
@@ -5251,7 +5251,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="48" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A48" s="2"/>
       <c r="B48" s="3" t="s">
         <v>2</v>
@@ -5272,7 +5272,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="49" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A49" s="2"/>
       <c r="B49" s="3" t="s">
         <v>2</v>
@@ -5293,7 +5293,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A50" s="2"/>
       <c r="B50" s="3" t="s">
         <v>2</v>
@@ -5314,7 +5314,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A51" s="2"/>
       <c r="B51" s="3" t="s">
         <v>2</v>
@@ -5335,7 +5335,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A52" s="2"/>
       <c r="B52" s="3" t="s">
         <v>2</v>
@@ -5356,7 +5356,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="53" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A53" s="2"/>
       <c r="B53" s="3" t="s">
         <v>2</v>
@@ -5377,7 +5377,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A54" s="2"/>
       <c r="B54" s="3" t="s">
         <v>2</v>
@@ -5398,7 +5398,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="55" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A55" s="2"/>
       <c r="B55" s="3" t="s">
         <v>2</v>
@@ -5419,7 +5419,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="56" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A56" s="2"/>
       <c r="B56" s="3" t="s">
         <v>2</v>
@@ -5440,7 +5440,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="57" spans="1:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="A57" s="2"/>
       <c r="B57" s="3" t="s">
         <v>2</v>
@@ -5461,7 +5461,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="58" spans="1:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="A58" s="2"/>
       <c r="B58" s="3" t="s">
         <v>2</v>
@@ -5482,7 +5482,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A59" s="2"/>
       <c r="B59" s="3" t="s">
         <v>2</v>
@@ -5503,7 +5503,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A60" s="2"/>
       <c r="B60" s="3" t="s">
         <v>2</v>
@@ -5524,7 +5524,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="61" spans="1:7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="2"/>
       <c r="B61" s="3" t="s">
         <v>2</v>
@@ -5545,7 +5545,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A62" s="2"/>
       <c r="B62" s="3" t="s">
         <v>2</v>
@@ -5566,7 +5566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="63" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="2"/>
       <c r="B63" s="3" t="s">
         <v>2</v>
@@ -5587,7 +5587,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="64" spans="1:7" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B64" s="3" t="s">
         <v>2</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="2:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="2:7" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B65" s="3" t="s">
         <v>2</v>
       </c>
@@ -5627,7 +5627,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="66" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B66" s="3" t="s">
         <v>2</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="67" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B67" s="3" t="s">
         <v>2</v>
       </c>
@@ -5667,7 +5667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="68" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B68" s="3" t="s">
         <v>2</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="69" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B69" s="3" t="s">
         <v>2</v>
       </c>
@@ -5707,7 +5707,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="70" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B70" s="3" t="s">
         <v>2</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="71" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B71" s="3" t="s">
         <v>2</v>
       </c>
@@ -5747,7 +5747,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="72" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B72" s="3" t="s">
         <v>2</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="73" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B73" s="3" t="s">
         <v>2</v>
       </c>
@@ -5787,7 +5787,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B74" s="3" t="s">
         <v>2</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="75" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B75" s="3" t="s">
         <v>2</v>
       </c>
@@ -5827,7 +5827,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="76" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B76" s="3" t="s">
         <v>2</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="77" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B77" s="3" t="s">
         <v>2</v>
       </c>
@@ -5867,7 +5867,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="78" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B78" s="3" t="s">
         <v>2</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="79" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B79" s="3" t="s">
         <v>2</v>
       </c>
@@ -5907,7 +5907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="80" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B80" s="3" t="s">
         <v>2</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="81" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B81" s="3" t="s">
         <v>2</v>
       </c>
@@ -5947,7 +5947,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="82" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B82" s="3" t="s">
         <v>2</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B83" s="3" t="s">
         <v>2</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B84" s="3" t="s">
         <v>2</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="85" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B85" s="3" t="s">
         <v>2</v>
       </c>
@@ -6027,7 +6027,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B86" s="3" t="s">
         <v>2</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="87" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B87" s="3" t="s">
         <v>2</v>
       </c>
@@ -6067,7 +6067,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="88" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B88" s="3" t="s">
         <v>2</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="89" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B89" s="3" t="s">
         <v>2</v>
       </c>
@@ -6107,7 +6107,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="90" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B90" s="3" t="s">
         <v>2</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B91" s="3" t="s">
         <v>2</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B92" s="3" t="s">
         <v>2</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="93" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B93" s="3" t="s">
         <v>2</v>
       </c>
@@ -6187,7 +6187,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B94" s="3" t="s">
         <v>2</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="95" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B95" s="3" t="s">
         <v>2</v>
       </c>
@@ -6227,7 +6227,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="96" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B96" s="3" t="s">
         <v>2</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="97" spans="2:7" customFormat="1" ht="46.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="2:7" customFormat="1" ht="48" x14ac:dyDescent="0.4">
       <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
@@ -6267,7 +6267,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="98" spans="2:7" customFormat="1" ht="35.1" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="2:7" customFormat="1" ht="36" x14ac:dyDescent="0.4">
       <c r="B98" s="3" t="s">
         <v>2</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="99" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B99" s="3" t="s">
         <v>2</v>
       </c>
@@ -6307,7 +6307,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="100" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B100" s="3" t="s">
         <v>2</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="101" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B101" s="3" t="s">
         <v>2</v>
       </c>
@@ -6347,7 +6347,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="102" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B102" s="3" t="s">
         <v>2</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="103" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B103" s="3" t="s">
         <v>2</v>
       </c>
@@ -6387,7 +6387,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="104" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B104" s="3" t="s">
         <v>2</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B105" s="3" t="s">
         <v>2</v>
       </c>
@@ -6427,7 +6427,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="106" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B106" s="3" t="s">
         <v>2</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="107" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B107" s="3" t="s">
         <v>2</v>
       </c>
@@ -6467,7 +6467,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="108" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B108" s="3" t="s">
         <v>2</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="109" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B109" s="3" t="s">
         <v>2</v>
       </c>
@@ -6507,7 +6507,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="110" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B110" s="3" t="s">
         <v>2</v>
       </c>
@@ -6527,7 +6527,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="111" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B111" s="3" t="s">
         <v>2</v>
       </c>
@@ -6547,7 +6547,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="112" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B112" s="3" t="s">
         <v>2</v>
       </c>
@@ -6567,7 +6567,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="113" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B113" s="3" t="s">
         <v>2</v>
       </c>
@@ -6587,7 +6587,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="114" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B114" s="3" t="s">
         <v>2</v>
       </c>
@@ -6607,7 +6607,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="115" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B115" s="3" t="s">
         <v>2</v>
       </c>
@@ -6627,7 +6627,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="116" spans="2:7" customFormat="1" ht="70.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="2:7" customFormat="1" ht="72" x14ac:dyDescent="0.4">
       <c r="B116" s="3" t="s">
         <v>2</v>
       </c>
@@ -6647,7 +6647,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="117" spans="2:7" customFormat="1" ht="70.2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="2:7" customFormat="1" ht="72" x14ac:dyDescent="0.4">
       <c r="B117" s="3" t="s">
         <v>2</v>
       </c>
@@ -6667,7 +6667,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="118" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B118" s="3" t="s">
         <v>2</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="119" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B119" s="3" t="s">
         <v>2</v>
       </c>
@@ -6707,7 +6707,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B120" s="3" t="s">
         <v>2</v>
       </c>
@@ -6725,7 +6725,7 @@
       </c>
       <c r="G120" s="4"/>
     </row>
-    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B121" s="3" t="s">
         <v>2</v>
       </c>
@@ -6743,7 +6743,7 @@
       </c>
       <c r="G121" s="4"/>
     </row>
-    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B122" s="3" t="s">
         <v>2</v>
       </c>
@@ -6763,7 +6763,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B123" s="3" t="s">
         <v>2</v>
       </c>
@@ -6783,7 +6783,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B124" s="3" t="s">
         <v>2</v>
       </c>
@@ -6801,7 +6801,7 @@
       </c>
       <c r="G124" s="4"/>
     </row>
-    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B125" s="3" t="s">
         <v>2</v>
       </c>
@@ -6819,7 +6819,7 @@
       </c>
       <c r="G125" s="4"/>
     </row>
-    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B126" s="3" t="s">
         <v>2</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B127" s="3" t="s">
         <v>2</v>
       </c>
@@ -6859,7 +6859,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B128" s="3" t="s">
         <v>2</v>
       </c>
@@ -6879,7 +6879,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B129" s="3" t="s">
         <v>2</v>
       </c>
@@ -6899,7 +6899,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B130" s="3" t="s">
         <v>2</v>
       </c>
@@ -6919,7 +6919,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
@@ -6939,7 +6939,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B132" s="3" t="s">
         <v>2</v>
       </c>
@@ -6957,7 +6957,7 @@
       </c>
       <c r="G132" s="4"/>
     </row>
-    <row r="133" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B133" s="3" t="s">
         <v>2</v>
       </c>
@@ -6975,7 +6975,7 @@
       </c>
       <c r="G133" s="4"/>
     </row>
-    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B134" s="3" t="s">
         <v>2</v>
       </c>
@@ -6993,7 +6993,7 @@
       </c>
       <c r="G134" s="4"/>
     </row>
-    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B135" s="3" t="s">
         <v>2</v>
       </c>
@@ -7011,7 +7011,7 @@
       </c>
       <c r="G135" s="4"/>
     </row>
-    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B136" s="3" t="s">
         <v>2</v>
       </c>
@@ -7029,7 +7029,7 @@
       </c>
       <c r="G136" s="4"/>
     </row>
-    <row r="137" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B137" s="3" t="s">
         <v>2</v>
       </c>
@@ -7047,7 +7047,7 @@
       </c>
       <c r="G137" s="4"/>
     </row>
-    <row r="138" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B138" s="3" t="s">
         <v>2</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B139" s="3" t="s">
         <v>2</v>
       </c>
@@ -7085,7 +7085,7 @@
       </c>
       <c r="G139" s="4"/>
     </row>
-    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B140" s="3" t="s">
         <v>2</v>
       </c>
@@ -7103,7 +7103,7 @@
       </c>
       <c r="G140" s="4"/>
     </row>
-    <row r="141" spans="2:7" customFormat="1" ht="23.4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="2:7" customFormat="1" ht="24" x14ac:dyDescent="0.4">
       <c r="B141" s="3" t="s">
         <v>2</v>
       </c>
@@ -7123,7 +7123,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B142" s="3" t="s">
         <v>2</v>
       </c>
@@ -7141,7 +7141,7 @@
       </c>
       <c r="G142" s="4"/>
     </row>
-    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B143" s="3" t="s">
         <v>2</v>
       </c>
@@ -7159,7 +7159,7 @@
       </c>
       <c r="G143" s="4"/>
     </row>
-    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B144" s="3" t="s">
         <v>2</v>
       </c>
@@ -7177,7 +7177,7 @@
       </c>
       <c r="G144" s="4"/>
     </row>
-    <row r="145" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B145" s="3" t="s">
         <v>2</v>
       </c>
@@ -7195,7 +7195,7 @@
       </c>
       <c r="G145" s="4"/>
     </row>
-    <row r="146" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B146" s="3" t="s">
         <v>2</v>
       </c>
@@ -7213,7 +7213,7 @@
       </c>
       <c r="G146" s="4"/>
     </row>
-    <row r="147" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B147" s="3" t="s">
         <v>2</v>
       </c>
@@ -7231,7 +7231,7 @@
       </c>
       <c r="G147" s="4"/>
     </row>
-    <row r="148" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B148" s="3" t="s">
         <v>2</v>
       </c>
@@ -7249,7 +7249,7 @@
       </c>
       <c r="G148" s="4"/>
     </row>
-    <row r="149" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B149" s="3" t="s">
         <v>2</v>
       </c>
@@ -7267,7 +7267,7 @@
       </c>
       <c r="G149" s="4"/>
     </row>
-    <row r="150" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B150" s="3" t="s">
         <v>2</v>
       </c>
@@ -7285,7 +7285,7 @@
       </c>
       <c r="G150" s="4"/>
     </row>
-    <row r="151" spans="2:7" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="2:7" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B151" s="3" t="s">
         <v>2</v>
       </c>
